--- a/biology/Médecine/Laser_dentaire_Erbium/Laser_dentaire_Erbium.xlsx
+++ b/biology/Médecine/Laser_dentaire_Erbium/Laser_dentaire_Erbium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Laser dentaire Erbium est un laser adapté à l'odontologie conservatrice et cosmétique.
 </t>
@@ -511,7 +523,9 @@
           <t>Explication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que d'autres types de laser dentaire existent (diodes laser, CO2, Nd:YAG, Nd:YAP), les lasers Erbium:YAG sont aujourd’hui les lasers les plus polyvalents et les plus modernes. Ils sont idéaux pour une large variété de traitements en omnipratique dentaire, parodontologie, chirurgie, endodontie et implantologie et ils sont les seuls lasers dentaires à pouvoir traiter aussi bien les tissus mous (gencive, langue) que les tissus durs (émail, os) de la cavité buccale. Ainsi, ces lasers peuvent remplacer avantageusement la fraise dentaire dans de nombreux cas.
 </t>
@@ -542,7 +556,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un laser Erbium génère un rayonnement à la longueur d’onde de 2 940 nm très bien absorbée par l’eau des tissus de l'organisme (photo-vaporisation). En conséquence, plus le tissu contient d’eau, plus la longueur d’onde est absorbée et efficace.
 En outre, compte tenu de la forte absorption, le rayon pénètre peu profondément dans les tissus. Ces lasers « chauffent » beaucoup moins les tissus que les autres lasers.
@@ -578,45 +594,157 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dentisterie de meilleure qualité
-Instrument permettant une dentisterie peu invasive et atraumatique[1], les lasers Erbium présentent de très nombreux avantages : travail précis permettant un excellent respect des tissus sains, excellentes préparations de cavités sans microfracture, mordançages mécaniques avec élimination des boues dentinaires (smear layers) permettant des bondings de grande qualité, aucun risque de carbonisation des tissus, action bactéricide, effet anti-inflammatoire, cicatrisation tissulaire plus rapide, stimulation de l'ostéogénèse…
-Amélioration notable du confort des patients
-Avec les lasers Erbium, l'anesthésie locale peut souvent être évitée avant les traitements de routine, ce qui représente un énorme bénéfice pour les patients, en particulier chez les enfants. Le traitement laser supprime les sensations désagréables liées aux injections ou au travail de la fraise (vibrations, bruit…). Les patients repartent soignés sans engourdissement du visage et sans douleur postopératoire.
-Plus grande offre de traitements
-Les lasers Erbium permettent d’effectuer des traitements qui étaient auparavant difficiles à réaliser au cabinet dentaire : nettoyage et désinfection des poches parodontales, élongations coronaires[2], dentisterie esthétique, microdentisterie, etc.
-Productivité augmentée
-Limiter l'utilisation des anesthésies permettent de gagner du temps. Les traitements peuvent commencer dès l'arrivée des patients, sans avoir à attendre la prise de l’anesthésie.
+          <t>Dentisterie de meilleure qualité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Instrument permettant une dentisterie peu invasive et atraumatique, les lasers Erbium présentent de très nombreux avantages : travail précis permettant un excellent respect des tissus sains, excellentes préparations de cavités sans microfracture, mordançages mécaniques avec élimination des boues dentinaires (smear layers) permettant des bondings de grande qualité, aucun risque de carbonisation des tissus, action bactéricide, effet anti-inflammatoire, cicatrisation tissulaire plus rapide, stimulation de l'ostéogénèse…
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Laser_dentaire_Erbium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laser_dentaire_Erbium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Avantages des lasers Erbium</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Amélioration notable du confort des patients</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec les lasers Erbium, l'anesthésie locale peut souvent être évitée avant les traitements de routine, ce qui représente un énorme bénéfice pour les patients, en particulier chez les enfants. Le traitement laser supprime les sensations désagréables liées aux injections ou au travail de la fraise (vibrations, bruit…). Les patients repartent soignés sans engourdissement du visage et sans douleur postopératoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Laser_dentaire_Erbium</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laser_dentaire_Erbium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Avantages des lasers Erbium</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plus grande offre de traitements</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lasers Erbium permettent d’effectuer des traitements qui étaient auparavant difficiles à réaliser au cabinet dentaire : nettoyage et désinfection des poches parodontales, élongations coronaires, dentisterie esthétique, microdentisterie, etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Laser_dentaire_Erbium</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laser_dentaire_Erbium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Avantages des lasers Erbium</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Productivité augmentée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Limiter l'utilisation des anesthésies permettent de gagner du temps. Les traitements peuvent commencer dès l'arrivée des patients, sans avoir à attendre la prise de l’anesthésie.
 Le laser permet le regroupement des actes et le travail sur plusieurs quadrants chez un même patient. Jusqu’à quatre quadrants peuvent être traités sans anesthésie lors d’une même visite. Le nombre de visites de traitement est réduit, le nombre de visites de suivi également, libérant ainsi du temps pour d’autres patients. Occasionnellement, un traitement laser peut révéler des pathologies non diagnostiquées qui peuvent être traitées dans la foulée. En outre, lors d’une intervention sous anesthésie locale, il est possible d'intervenir sur n’importe quelle dent non anesthésiée.
 Enfin, le laser facilite le traitement des pathologies d'urgence : fistulisation des kystes, traitement des effractions pulpaires et des pulpites en utilisant l'effet anti-inflammatoire du faisceau laser…
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Laser_dentaire_Erbium</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Laser_dentaire_Erbium</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Applications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Tissus durs
 Préparation de cavités de toute classe
